--- a/biology/Médecine/1509_en_santé_et_médecine/1509_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1509_en_santé_et_médecine/1509_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1509_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1509_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1509 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1509_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1509_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de Ford's Hospital à Coventry, dans les actuelles Midlands de l'Ouest en Angleterre, établissement d'abord destiné à l'accueil de « cinq hommes et une femme », mais qui, dès 1517, recevra « six pauvres hommes et leur femme âgés de plus de soixante ans[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de Ford's Hospital à Coventry, dans les actuelles Midlands de l'Ouest en Angleterre, établissement d'abord destiné à l'accueil de « cinq hommes et une femme », mais qui, dès 1517, recevra « six pauvres hommes et leur femme âgés de plus de soixante ans ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1509_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1509_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Av. 1509-1520 : fl. Richard Babham, apothicaire, au service des rois d'Angleterre Henri VII et Henri VIII, accompagne ce dernier au camp du Drap d'or[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Av. 1509-1520 : fl. Richard Babham, apothicaire, au service des rois d'Angleterre Henri VII et Henri VIII, accompagne ce dernier au camp du Drap d'or.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1509_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1509_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,11 +587,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 février : Guido Guidi (mort en 1569), médecin italien, médecin ordinaire du roi François Ier et premier des lecteurs royaux en médecine au Collège royal[3].
-1510 (ou 1509) : Ambroise Paré (mort en 1590), chirurgien et anatomiste français[4].
-1511 (ou 1509) : Michel Servet (mort en 1563), médecin et théologien d'origine aragonaise, un des premiers à décrire la circulation pulmonaire[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 février : Guido Guidi (mort en 1569), médecin italien, médecin ordinaire du roi François Ier et premier des lecteurs royaux en médecine au Collège royal.
+1510 (ou 1509) : Ambroise Paré (mort en 1590), chirurgien et anatomiste français.
+1511 (ou 1509) : Michel Servet (mort en 1563), médecin et théologien d'origine aragonaise, un des premiers à décrire la circulation pulmonaire.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1509_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1509_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Guillaume Brun (né en 1430), médecin et magistrat français, médecin du roi Louis XI[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Guillaume Brun (né en 1430), médecin et magistrat français, médecin du roi Louis XI.</t>
         </is>
       </c>
     </row>
